--- a/DbLayouts/L2-業務作業/FacShareLimit.xlsx
+++ b/DbLayouts/L2-業務作業/FacShareLimit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EC9495-3483-49DB-B64C-F932E4C74C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35AD843-8EE6-4156-A4DD-52011F2897E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,11 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合併額度
-控管資料檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核准號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +224,10 @@
   </si>
   <si>
     <t>幣別</t>
+  </si>
+  <si>
+    <t>合併額度控管資料檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,6 +460,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -478,15 +486,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,38 +828,38 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
@@ -872,12 +871,12 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>19</v>
@@ -887,10 +886,10 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="6"/>
       <c r="D4" s="14"/>
       <c r="E4" s="17"/>
@@ -898,10 +897,10 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
       <c r="E5" s="17"/>
@@ -909,10 +908,10 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="6"/>
       <c r="D6" s="14"/>
       <c r="E6" s="17"/>
@@ -920,10 +919,10 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="6"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
@@ -931,10 +930,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="6"/>
       <c r="D8" s="14"/>
       <c r="E8" s="17"/>
@@ -942,10 +941,10 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="6"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
@@ -980,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>28</v>
@@ -999,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>28</v>
@@ -1018,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>28</v>
@@ -1037,10 +1036,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>28</v>
@@ -1056,10 +1055,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>28</v>
@@ -1071,33 +1070,33 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="23">
         <v>6</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="24">
         <v>3</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="A17" s="23">
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>28</v>
@@ -1111,7 +1110,7 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="23">
         <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1130,7 +1129,7 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="23">
         <v>9</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1149,7 +1148,7 @@
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="23">
         <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1168,7 +1167,7 @@
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="A21" s="23">
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1240,24 +1239,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
